--- a/FOIT_2123_Projekt/Aufgabe_4/Tomaten-Mozzarella.xlsx
+++ b/FOIT_2123_Projekt/Aufgabe_4/Tomaten-Mozzarella.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20394"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F28809F1-CF74-43F1-A382-2EC0FDAB1507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E54D30-93CB-4472-B92F-98074215EF63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28830" windowHeight="16110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1364,7 +1364,7 @@
   <dimension ref="B1:BO16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:BO4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1495,184 +1495,184 @@
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
       <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2">
         <v>60</v>
       </c>
-      <c r="I4" s="2">
+      <c r="N4" s="2">
         <v>61</v>
       </c>
-      <c r="J4" s="2">
+      <c r="O4" s="2">
         <v>62</v>
       </c>
-      <c r="K4" s="2">
+      <c r="P4" s="2">
         <v>63</v>
       </c>
-      <c r="L4" s="2">
+      <c r="Q4" s="2">
         <v>64</v>
       </c>
-      <c r="M4" s="2">
+      <c r="R4" s="2">
         <v>65</v>
       </c>
-      <c r="N4" s="2">
+      <c r="S4" s="2">
         <v>66</v>
       </c>
-      <c r="O4" s="2">
+      <c r="T4" s="2">
         <v>67</v>
       </c>
-      <c r="P4" s="2">
+      <c r="U4" s="2">
         <v>68</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="V4" s="2">
         <v>69</v>
       </c>
-      <c r="R4" s="2">
+      <c r="W4" s="2">
         <v>70</v>
       </c>
-      <c r="S4" s="2">
+      <c r="X4" s="2">
         <v>71</v>
       </c>
-      <c r="T4" s="2">
+      <c r="Y4" s="2">
         <v>72</v>
       </c>
-      <c r="U4" s="2">
+      <c r="Z4" s="2">
         <v>73</v>
       </c>
-      <c r="V4" s="2">
+      <c r="AA4" s="2">
         <v>74</v>
       </c>
-      <c r="W4" s="2">
+      <c r="AB4" s="2">
         <v>75</v>
       </c>
-      <c r="X4" s="2">
+      <c r="AC4" s="2">
         <v>76</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AD4" s="2">
         <v>77</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AE4" s="2">
         <v>78</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AF4" s="2">
         <v>79</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AG4" s="2">
         <v>80</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AH4" s="2">
         <v>81</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AI4" s="2">
         <v>82</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AJ4" s="2">
         <v>83</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AK4" s="2">
         <v>84</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AL4" s="2">
         <v>85</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AM4" s="2">
         <v>86</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AN4" s="2">
         <v>87</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AO4" s="2">
         <v>88</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AP4" s="2">
         <v>89</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AQ4" s="2">
         <v>90</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AR4" s="2">
         <v>91</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AS4" s="2">
         <v>92</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AT4" s="2">
         <v>93</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AU4" s="2">
         <v>94</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AV4" s="2">
         <v>95</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AW4" s="2">
         <v>96</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AX4" s="2">
         <v>97</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AY4" s="2">
         <v>98</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AZ4" s="2">
         <v>99</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="BA4" s="2">
         <v>100</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="BB4" s="2">
         <v>101</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="BC4" s="2">
         <v>102</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="BD4" s="2">
         <v>103</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="BE4" s="2">
         <v>104</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BF4" s="2">
         <v>105</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BG4" s="2">
         <v>106</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BH4" s="2">
         <v>107</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BI4" s="2">
         <v>108</v>
       </c>
-      <c r="BE4" s="2">
+      <c r="BJ4" s="2">
         <v>109</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BK4" s="2">
         <v>110</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="BL4" s="2">
         <v>111</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BM4" s="2">
         <v>112</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BN4" s="2">
         <v>113</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="BO4" s="2">
         <v>114</v>
-      </c>
-      <c r="BK4" s="2">
-        <v>115</v>
-      </c>
-      <c r="BL4" s="2">
-        <v>116</v>
-      </c>
-      <c r="BM4" s="2">
-        <v>117</v>
-      </c>
-      <c r="BN4" s="2">
-        <v>118</v>
-      </c>
-      <c r="BO4" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
